--- a/Agreement_Information.xlsx
+++ b/Agreement_Information.xlsx
@@ -222,7 +222,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,16 +253,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -322,53 +340,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -672,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,528 +907,541 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="23"/>
+      <c r="D1" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="25" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="26"/>
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="26"/>
+      <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="26"/>
+      <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="27"/>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="26"/>
+      <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="20"/>
+      <c r="D6" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="27" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="26"/>
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="27" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="26"/>
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="1" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="27" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="26"/>
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="1" t="s">
+      <c r="C9" s="20"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="27" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="26"/>
+      <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="1" t="s">
+      <c r="C10" s="20"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="27" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="26"/>
+      <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="10"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="27" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="9" t="s">
+      <c r="A12" s="26"/>
+      <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="6" t="s">
+      <c r="C12" s="20"/>
+      <c r="D12" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="27" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="26"/>
+      <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="6" t="s">
+      <c r="C13" s="20"/>
+      <c r="D13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="27"/>
     </row>
     <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="26"/>
+      <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="3" t="s">
+      <c r="C14" s="20"/>
+      <c r="D14" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="27" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="9" t="s">
+      <c r="A15" s="26"/>
+      <c r="B15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="27"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="26"/>
+      <c r="B16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="20" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="9" t="s">
+      <c r="D16" s="28"/>
+      <c r="E16" s="29"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="26"/>
+      <c r="B17" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="21" t="s">
         <v>15</v>
       </c>
+      <c r="D17" s="28"/>
+      <c r="E17" s="29"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="34" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="39" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="9" t="s">
+      <c r="A19" s="26"/>
+      <c r="B19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="35" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="9" t="s">
+      <c r="A20" s="26"/>
+      <c r="B20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="36"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="9" t="s">
+      <c r="A21" s="26"/>
+      <c r="B21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="36"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="9" t="s">
+      <c r="A22" s="26"/>
+      <c r="B22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="36"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="9" t="s">
+      <c r="A23" s="26"/>
+      <c r="B23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="36"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="9" t="s">
+      <c r="A24" s="26"/>
+      <c r="B24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="36"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="9" t="s">
+      <c r="A25" s="26"/>
+      <c r="B25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="36" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="9" t="s">
+      <c r="A26" s="26"/>
+      <c r="B26" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="36"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="9" t="s">
+      <c r="A27" s="26"/>
+      <c r="B27" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="36"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="9" t="s">
+      <c r="A28" s="26"/>
+      <c r="B28" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="36"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="9" t="s">
+      <c r="A29" s="26"/>
+      <c r="B29" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="36"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="9" t="s">
+      <c r="A30" s="26"/>
+      <c r="B30" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="36"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="9" t="s">
+      <c r="A31" s="26"/>
+      <c r="B31" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="36"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="9" t="s">
+      <c r="A32" s="26"/>
+      <c r="B32" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="36"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="9" t="s">
+      <c r="A33" s="26"/>
+      <c r="B33" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="36"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="9" t="s">
+      <c r="A34" s="26"/>
+      <c r="B34" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="36"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="9" t="s">
+      <c r="A35" s="26"/>
+      <c r="B35" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="36"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="9" t="s">
+      <c r="A36" s="26"/>
+      <c r="B36" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="9" t="s">
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="36"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="30"/>
+      <c r="B37" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="37"/>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="9" t="s">
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F38" s="10"/>
+      <c r="F38" s="15"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="9" t="s">
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F39" s="10"/>
+      <c r="F39" s="16"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="9" t="s">
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F40" s="10"/>
+      <c r="F40" s="16"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="9" t="s">
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F41" s="10"/>
+      <c r="F41" s="16"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="9" t="s">
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F42" s="10"/>
+      <c r="F42" s="16"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="9" t="s">
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F43" s="10"/>
+      <c r="F43" s="16"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
-      <c r="E44" s="9" t="s">
+      <c r="B44" s="1"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F44" s="10"/>
+      <c r="F44" s="17"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
-      <c r="E45" s="9" t="s">
+      <c r="B45" s="1"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F45" s="10"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="11"/>
-      <c r="E46" s="9" t="s">
+      <c r="F45" s="17"/>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="12"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F46" s="10"/>
+      <c r="F46" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Agreement_Information.xlsx
+++ b/Agreement_Information.xlsx
@@ -520,29 +520,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -557,23 +539,14 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -589,6 +562,33 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -907,541 +907,541 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="24" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="18" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
+      <c r="A2" s="30"/>
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="27"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
+      <c r="A3" s="30"/>
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="13" t="s">
         <v>55</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="27"/>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="20"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="27"/>
+      <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="20"/>
+      <c r="C5" s="14"/>
       <c r="D5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="27"/>
+      <c r="E5" s="19"/>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="19" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="27" t="s">
+      <c r="D7" s="36"/>
+      <c r="E7" s="19" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="27" t="s">
+      <c r="D8" s="36"/>
+      <c r="E8" s="19" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="27" t="s">
+      <c r="C9" s="14"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="19" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="27" t="s">
+      <c r="C10" s="14"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="19" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="27" t="s">
+      <c r="C11" s="14"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="19" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="20"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="19" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="20"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="27"/>
+      <c r="E13" s="19"/>
     </row>
     <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="20"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="19" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="27"/>
+      <c r="E15" s="19"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
-      <c r="B17" s="8" t="s">
+      <c r="A17" s="30"/>
+      <c r="B17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="29"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="34" t="s">
+      <c r="F18" s="25" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="39" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="35" t="s">
+      <c r="F19" s="26" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="36"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="27"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="36"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="27"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="36"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="27"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="36"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="27"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
+      <c r="A24" s="30"/>
       <c r="B24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="36"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="27"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
+      <c r="A25" s="30"/>
       <c r="B25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="36" t="s">
+      <c r="F25" s="27" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="26"/>
+      <c r="A26" s="30"/>
       <c r="B26" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="36"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="27"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
+      <c r="A27" s="30"/>
       <c r="B27" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="36"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="27"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
+      <c r="A28" s="30"/>
       <c r="B28" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="36"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="27"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
+      <c r="A29" s="30"/>
       <c r="B29" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="36"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="27"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
+      <c r="A30" s="30"/>
       <c r="B30" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="36"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="27"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
+      <c r="A31" s="30"/>
       <c r="B31" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="36"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="27"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="26"/>
+      <c r="A32" s="30"/>
       <c r="B32" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="36"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="27"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
+      <c r="A33" s="30"/>
       <c r="B33" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="36"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="27"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="26"/>
+      <c r="A34" s="30"/>
       <c r="B34" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="36"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="27"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="26"/>
+      <c r="A35" s="30"/>
       <c r="B35" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="36"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="27"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="26"/>
+      <c r="A36" s="30"/>
       <c r="B36" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="36"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="27"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="30"/>
-      <c r="B37" s="14" t="s">
+      <c r="A37" s="31"/>
+      <c r="B37" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="37"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="28"/>
     </row>
     <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="10" t="s">
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F38" s="15"/>
+      <c r="F38" s="9"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="11"/>
+      <c r="A39" s="33"/>
       <c r="B39" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
       <c r="E39" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F39" s="16"/>
+      <c r="F39" s="10"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
+      <c r="A40" s="33"/>
       <c r="B40" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
       <c r="E40" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F40" s="16"/>
+      <c r="F40" s="10"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
+      <c r="A41" s="33"/>
       <c r="B41" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
       <c r="E41" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F41" s="16"/>
+      <c r="F41" s="10"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="11"/>
+      <c r="A42" s="33"/>
       <c r="B42" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
       <c r="E42" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F42" s="16"/>
+      <c r="F42" s="10"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="11"/>
+      <c r="A43" s="33"/>
       <c r="B43" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
       <c r="E43" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F43" s="16"/>
+      <c r="F43" s="10"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="11"/>
+      <c r="A44" s="33"/>
       <c r="B44" s="1"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
       <c r="E44" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F44" s="17"/>
+      <c r="F44" s="11"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="11"/>
+      <c r="A45" s="33"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
       <c r="E45" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F45" s="17"/>
+      <c r="F45" s="11"/>
     </row>
     <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="12"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="14" t="s">
+      <c r="A46" s="34"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F46" s="18"/>
+      <c r="F46" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Agreement_Information.xlsx
+++ b/Agreement_Information.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="65">
   <si>
     <t>District</t>
   </si>
@@ -216,6 +216,10 @@
   </si>
   <si>
     <t>Tenant 2</t>
+  </si>
+  <si>
+    <t>Identifier for which Party
+Name of Owner / Tenant</t>
   </si>
 </sst>
 </file>
@@ -510,7 +514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -588,6 +592,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -890,10 +897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1339,112 +1346,399 @@
       <c r="E37" s="22"/>
       <c r="F37" s="28"/>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>22</v>
+      <c r="B38" s="38" t="s">
+        <v>64</v>
       </c>
       <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="6" t="s">
+      <c r="D38" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F38" s="9"/>
+      <c r="E38" s="9"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="33"/>
-      <c r="B39" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="4" t="s">
+      <c r="B39" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F39" s="10"/>
+      <c r="E39" s="10"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="33"/>
       <c r="B40" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="4" t="s">
+      <c r="D40" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F40" s="10"/>
+      <c r="E40" s="10"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="33"/>
       <c r="B41" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="4" t="s">
+      <c r="D41" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F41" s="10"/>
+      <c r="E41" s="10"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="33"/>
       <c r="B42" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="4" t="s">
+      <c r="D42" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F42" s="10"/>
+      <c r="E42" s="10"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="33"/>
       <c r="B43" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="4" t="s">
+      <c r="D43" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F43" s="10"/>
+      <c r="E43" s="10"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="33"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="4" t="s">
+      <c r="B44" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F44" s="11"/>
+      <c r="E44" s="11"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="33"/>
       <c r="B45" s="1"/>
       <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="4" t="s">
+      <c r="D45" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F45" s="11"/>
+      <c r="E45" s="11"/>
     </row>
     <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="34"/>
       <c r="B46" s="7"/>
       <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="8" t="s">
+      <c r="D46" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F46" s="12"/>
+      <c r="E46" s="12"/>
+    </row>
+    <row r="47" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="9"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="33"/>
+      <c r="B48" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="10"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="33"/>
+      <c r="B49" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="10"/>
+      <c r="D49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="10"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="33"/>
+      <c r="B50" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="10"/>
+      <c r="D50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="10"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="33"/>
+      <c r="B51" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" s="10"/>
+      <c r="D51" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="10"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="33"/>
+      <c r="B52" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="10"/>
+      <c r="D52" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E52" s="10"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="33"/>
+      <c r="B53" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" s="10"/>
+      <c r="D53" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" s="11"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="33"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="11"/>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="34"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E55" s="12"/>
+    </row>
+    <row r="56" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B56" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" s="9"/>
+      <c r="D56" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="9"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="33"/>
+      <c r="B57" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" s="9"/>
+      <c r="D57" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="10"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="33"/>
+      <c r="B58" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" s="10"/>
+      <c r="D58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="10"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="33"/>
+      <c r="B59" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" s="10"/>
+      <c r="D59" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="10"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="33"/>
+      <c r="B60" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" s="10"/>
+      <c r="D60" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="10"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="33"/>
+      <c r="B61" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" s="10"/>
+      <c r="D61" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E61" s="10"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="33"/>
+      <c r="B62" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C62" s="10"/>
+      <c r="D62" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E62" s="11"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="33"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E63" s="11"/>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="34"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E64" s="12"/>
+    </row>
+    <row r="65" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B65" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C65" s="9"/>
+      <c r="D65" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="9"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="33"/>
+      <c r="B66" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C66" s="9"/>
+      <c r="D66" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="10"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="33"/>
+      <c r="B67" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C67" s="10"/>
+      <c r="D67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="10"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="33"/>
+      <c r="B68" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C68" s="10"/>
+      <c r="D68" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="10"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="33"/>
+      <c r="B69" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C69" s="10"/>
+      <c r="D69" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="10"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="33"/>
+      <c r="B70" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C70" s="10"/>
+      <c r="D70" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E70" s="10"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="33"/>
+      <c r="B71" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C71" s="10"/>
+      <c r="D71" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E71" s="11"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="33"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E72" s="11"/>
+    </row>
+    <row r="73" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="34"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E73" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="A56:A64"/>
+    <mergeCell ref="A65:A73"/>
+    <mergeCell ref="A47:A55"/>
     <mergeCell ref="A18:A37"/>
     <mergeCell ref="A38:A46"/>
     <mergeCell ref="D6:D11"/>

--- a/Agreement_Information.xlsx
+++ b/Agreement_Information.xlsx
@@ -566,6 +566,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -575,15 +587,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -592,9 +595,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -900,7 +900,7 @@
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,7 +914,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="6" t="s">
@@ -929,7 +929,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
+      <c r="A2" s="34"/>
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
@@ -942,7 +942,7 @@
       <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
@@ -955,7 +955,7 @@
       <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
@@ -966,7 +966,7 @@
       <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
@@ -977,12 +977,12 @@
       <c r="E5" s="19"/>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="14"/>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="36" t="s">
         <v>56</v>
       </c>
       <c r="E6" s="19" t="s">
@@ -990,66 +990,66 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="36"/>
+      <c r="D7" s="37"/>
       <c r="E7" s="19" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="36"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="19" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="14"/>
-      <c r="D9" s="36"/>
+      <c r="D9" s="37"/>
       <c r="E9" s="19" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="14"/>
-      <c r="D10" s="36"/>
+      <c r="D10" s="37"/>
       <c r="E10" s="19" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="14"/>
-      <c r="D11" s="37"/>
+      <c r="D11" s="38"/>
       <c r="E11" s="19" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
@@ -1062,7 +1062,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
@@ -1073,7 +1073,7 @@
       <c r="E13" s="19"/>
     </row>
     <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
@@ -1086,7 +1086,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="4" t="s">
         <v>18</v>
       </c>
@@ -1099,7 +1099,7 @@
       <c r="E15" s="19"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="4" t="s">
         <v>14</v>
       </c>
@@ -1110,7 +1110,7 @@
       <c r="E16" s="21"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="5" t="s">
         <v>13</v>
       </c>
@@ -1121,7 +1121,7 @@
       <c r="E17" s="21"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="33" t="s">
         <v>58</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -1141,7 +1141,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="39" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="4" t="s">
         <v>23</v>
       </c>
@@ -1159,7 +1159,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="4" t="s">
         <v>22</v>
       </c>
@@ -1169,7 +1169,7 @@
       <c r="F20" s="27"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="4" t="s">
         <v>21</v>
       </c>
@@ -1179,7 +1179,7 @@
       <c r="F21" s="27"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="4" t="s">
         <v>20</v>
       </c>
@@ -1189,7 +1189,7 @@
       <c r="F22" s="27"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="4" t="s">
         <v>24</v>
       </c>
@@ -1199,7 +1199,7 @@
       <c r="F23" s="27"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="4" t="s">
         <v>25</v>
       </c>
@@ -1209,7 +1209,7 @@
       <c r="F24" s="27"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="4" t="s">
         <v>27</v>
       </c>
@@ -1227,7 +1227,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
+      <c r="A26" s="34"/>
       <c r="B26" s="4" t="s">
         <v>26</v>
       </c>
@@ -1237,7 +1237,7 @@
       <c r="F26" s="27"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
+      <c r="A27" s="34"/>
       <c r="B27" s="4" t="s">
         <v>29</v>
       </c>
@@ -1247,7 +1247,7 @@
       <c r="F27" s="27"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
+      <c r="A28" s="34"/>
       <c r="B28" s="4" t="s">
         <v>30</v>
       </c>
@@ -1257,7 +1257,7 @@
       <c r="F28" s="27"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
+      <c r="A29" s="34"/>
       <c r="B29" s="4" t="s">
         <v>7</v>
       </c>
@@ -1267,7 +1267,7 @@
       <c r="F29" s="27"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
+      <c r="A30" s="34"/>
       <c r="B30" s="4" t="s">
         <v>8</v>
       </c>
@@ -1277,7 +1277,7 @@
       <c r="F30" s="27"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
+      <c r="A31" s="34"/>
       <c r="B31" s="4" t="s">
         <v>11</v>
       </c>
@@ -1287,7 +1287,7 @@
       <c r="F31" s="27"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="30"/>
+      <c r="A32" s="34"/>
       <c r="B32" s="4" t="s">
         <v>9</v>
       </c>
@@ -1297,7 +1297,7 @@
       <c r="F32" s="27"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="30"/>
+      <c r="A33" s="34"/>
       <c r="B33" s="4" t="s">
         <v>10</v>
       </c>
@@ -1307,7 +1307,7 @@
       <c r="F33" s="27"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="30"/>
+      <c r="A34" s="34"/>
       <c r="B34" s="4" t="s">
         <v>31</v>
       </c>
@@ -1317,7 +1317,7 @@
       <c r="F34" s="27"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="30"/>
+      <c r="A35" s="34"/>
       <c r="B35" s="4" t="s">
         <v>32</v>
       </c>
@@ -1327,7 +1327,7 @@
       <c r="F35" s="27"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="30"/>
+      <c r="A36" s="34"/>
       <c r="B36" s="4" t="s">
         <v>0</v>
       </c>
@@ -1337,7 +1337,7 @@
       <c r="F36" s="27"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="31"/>
+      <c r="A37" s="35"/>
       <c r="B37" s="8" t="s">
         <v>33</v>
       </c>
@@ -1347,10 +1347,10 @@
       <c r="F37" s="28"/>
     </row>
     <row r="38" spans="1:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="38" t="s">
+      <c r="B38" s="29" t="s">
         <v>64</v>
       </c>
       <c r="C38" s="9"/>
@@ -1360,7 +1360,7 @@
       <c r="E38" s="9"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="33"/>
+      <c r="A39" s="31"/>
       <c r="B39" s="6" t="s">
         <v>22</v>
       </c>
@@ -1371,7 +1371,7 @@
       <c r="E39" s="10"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="33"/>
+      <c r="A40" s="31"/>
       <c r="B40" s="4" t="s">
         <v>21</v>
       </c>
@@ -1382,7 +1382,7 @@
       <c r="E40" s="10"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="33"/>
+      <c r="A41" s="31"/>
       <c r="B41" s="4" t="s">
         <v>20</v>
       </c>
@@ -1393,7 +1393,7 @@
       <c r="E41" s="10"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="33"/>
+      <c r="A42" s="31"/>
       <c r="B42" s="4" t="s">
         <v>24</v>
       </c>
@@ -1404,7 +1404,7 @@
       <c r="E42" s="10"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="33"/>
+      <c r="A43" s="31"/>
       <c r="B43" s="4" t="s">
         <v>25</v>
       </c>
@@ -1415,7 +1415,7 @@
       <c r="E43" s="10"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="33"/>
+      <c r="A44" s="31"/>
       <c r="B44" s="4" t="s">
         <v>26</v>
       </c>
@@ -1426,7 +1426,7 @@
       <c r="E44" s="11"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="33"/>
+      <c r="A45" s="31"/>
       <c r="B45" s="1"/>
       <c r="C45" s="11"/>
       <c r="D45" s="4" t="s">
@@ -1435,7 +1435,7 @@
       <c r="E45" s="11"/>
     </row>
     <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="34"/>
+      <c r="A46" s="32"/>
       <c r="B46" s="7"/>
       <c r="C46" s="12"/>
       <c r="D46" s="8" t="s">
@@ -1444,10 +1444,10 @@
       <c r="E46" s="12"/>
     </row>
     <row r="47" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="32" t="s">
+      <c r="A47" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B47" s="38" t="s">
+      <c r="B47" s="29" t="s">
         <v>64</v>
       </c>
       <c r="C47" s="9"/>
@@ -1457,7 +1457,7 @@
       <c r="E47" s="9"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="33"/>
+      <c r="A48" s="31"/>
       <c r="B48" s="6" t="s">
         <v>22</v>
       </c>
@@ -1468,7 +1468,7 @@
       <c r="E48" s="10"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="33"/>
+      <c r="A49" s="31"/>
       <c r="B49" s="4" t="s">
         <v>21</v>
       </c>
@@ -1479,7 +1479,7 @@
       <c r="E49" s="10"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="33"/>
+      <c r="A50" s="31"/>
       <c r="B50" s="4" t="s">
         <v>20</v>
       </c>
@@ -1490,7 +1490,7 @@
       <c r="E50" s="10"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="33"/>
+      <c r="A51" s="31"/>
       <c r="B51" s="4" t="s">
         <v>24</v>
       </c>
@@ -1501,7 +1501,7 @@
       <c r="E51" s="10"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="33"/>
+      <c r="A52" s="31"/>
       <c r="B52" s="4" t="s">
         <v>25</v>
       </c>
@@ -1512,7 +1512,7 @@
       <c r="E52" s="10"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="33"/>
+      <c r="A53" s="31"/>
       <c r="B53" s="4" t="s">
         <v>26</v>
       </c>
@@ -1523,7 +1523,7 @@
       <c r="E53" s="11"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="33"/>
+      <c r="A54" s="31"/>
       <c r="B54" s="1"/>
       <c r="C54" s="11"/>
       <c r="D54" s="4" t="s">
@@ -1532,7 +1532,7 @@
       <c r="E54" s="11"/>
     </row>
     <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="34"/>
+      <c r="A55" s="32"/>
       <c r="B55" s="7"/>
       <c r="C55" s="12"/>
       <c r="D55" s="8" t="s">
@@ -1541,10 +1541,10 @@
       <c r="E55" s="12"/>
     </row>
     <row r="56" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="32" t="s">
+      <c r="A56" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B56" s="38" t="s">
+      <c r="B56" s="29" t="s">
         <v>64</v>
       </c>
       <c r="C56" s="9"/>
@@ -1554,7 +1554,7 @@
       <c r="E56" s="9"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="33"/>
+      <c r="A57" s="31"/>
       <c r="B57" s="6" t="s">
         <v>22</v>
       </c>
@@ -1565,7 +1565,7 @@
       <c r="E57" s="10"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="33"/>
+      <c r="A58" s="31"/>
       <c r="B58" s="4" t="s">
         <v>21</v>
       </c>
@@ -1576,7 +1576,7 @@
       <c r="E58" s="10"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="33"/>
+      <c r="A59" s="31"/>
       <c r="B59" s="4" t="s">
         <v>20</v>
       </c>
@@ -1587,7 +1587,7 @@
       <c r="E59" s="10"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="33"/>
+      <c r="A60" s="31"/>
       <c r="B60" s="4" t="s">
         <v>24</v>
       </c>
@@ -1598,7 +1598,7 @@
       <c r="E60" s="10"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="33"/>
+      <c r="A61" s="31"/>
       <c r="B61" s="4" t="s">
         <v>25</v>
       </c>
@@ -1609,7 +1609,7 @@
       <c r="E61" s="10"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="33"/>
+      <c r="A62" s="31"/>
       <c r="B62" s="4" t="s">
         <v>26</v>
       </c>
@@ -1620,7 +1620,7 @@
       <c r="E62" s="11"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="33"/>
+      <c r="A63" s="31"/>
       <c r="B63" s="1"/>
       <c r="C63" s="11"/>
       <c r="D63" s="4" t="s">
@@ -1629,7 +1629,7 @@
       <c r="E63" s="11"/>
     </row>
     <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="34"/>
+      <c r="A64" s="32"/>
       <c r="B64" s="7"/>
       <c r="C64" s="12"/>
       <c r="D64" s="8" t="s">
@@ -1638,10 +1638,10 @@
       <c r="E64" s="12"/>
     </row>
     <row r="65" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="32" t="s">
+      <c r="A65" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B65" s="38" t="s">
+      <c r="B65" s="29" t="s">
         <v>64</v>
       </c>
       <c r="C65" s="9"/>
@@ -1651,7 +1651,7 @@
       <c r="E65" s="9"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="33"/>
+      <c r="A66" s="31"/>
       <c r="B66" s="6" t="s">
         <v>22</v>
       </c>
@@ -1662,7 +1662,7 @@
       <c r="E66" s="10"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="33"/>
+      <c r="A67" s="31"/>
       <c r="B67" s="4" t="s">
         <v>21</v>
       </c>
@@ -1673,7 +1673,7 @@
       <c r="E67" s="10"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="33"/>
+      <c r="A68" s="31"/>
       <c r="B68" s="4" t="s">
         <v>20</v>
       </c>
@@ -1684,7 +1684,7 @@
       <c r="E68" s="10"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="33"/>
+      <c r="A69" s="31"/>
       <c r="B69" s="4" t="s">
         <v>24</v>
       </c>
@@ -1695,7 +1695,7 @@
       <c r="E69" s="10"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="33"/>
+      <c r="A70" s="31"/>
       <c r="B70" s="4" t="s">
         <v>25</v>
       </c>
@@ -1706,7 +1706,7 @@
       <c r="E70" s="10"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="33"/>
+      <c r="A71" s="31"/>
       <c r="B71" s="4" t="s">
         <v>26</v>
       </c>
@@ -1717,7 +1717,7 @@
       <c r="E71" s="11"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="33"/>
+      <c r="A72" s="31"/>
       <c r="B72" s="1"/>
       <c r="C72" s="11"/>
       <c r="D72" s="4" t="s">
@@ -1726,7 +1726,7 @@
       <c r="E72" s="11"/>
     </row>
     <row r="73" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="34"/>
+      <c r="A73" s="32"/>
       <c r="B73" s="7"/>
       <c r="C73" s="12"/>
       <c r="D73" s="8" t="s">
@@ -1736,13 +1736,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D6:D11"/>
+    <mergeCell ref="A1:A17"/>
     <mergeCell ref="A56:A64"/>
     <mergeCell ref="A65:A73"/>
     <mergeCell ref="A47:A55"/>
     <mergeCell ref="A18:A37"/>
     <mergeCell ref="A38:A46"/>
-    <mergeCell ref="D6:D11"/>
-    <mergeCell ref="A1:A17"/>
   </mergeCells>
   <pageMargins left="0" right="3.125E-2" top="0.16666666666666666" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Agreement_Information.xlsx
+++ b/Agreement_Information.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="68">
   <si>
     <t>District</t>
   </si>
@@ -220,6 +220,15 @@
   <si>
     <t>Identifier for which Party
 Name of Owner / Tenant</t>
+  </si>
+  <si>
+    <t>Relation with person staying at Tenant's Permanent Address</t>
+  </si>
+  <si>
+    <t>Name of the person staying at Tenant's Permanent Address</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -284,7 +293,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -510,11 +519,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -569,6 +591,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -578,23 +615,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -897,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,7 +1011,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="14"/>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="30" t="s">
         <v>56</v>
       </c>
       <c r="E6" s="19" t="s">
@@ -997,7 +1026,7 @@
       <c r="C7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="37"/>
+      <c r="D7" s="31"/>
       <c r="E7" s="19" t="s">
         <v>48</v>
       </c>
@@ -1010,7 +1039,7 @@
       <c r="C8" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="37"/>
+      <c r="D8" s="31"/>
       <c r="E8" s="19" t="s">
         <v>49</v>
       </c>
@@ -1021,7 +1050,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="14"/>
-      <c r="D9" s="37"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="19" t="s">
         <v>50</v>
       </c>
@@ -1032,7 +1061,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="14"/>
-      <c r="D10" s="37"/>
+      <c r="D10" s="31"/>
       <c r="E10" s="19" t="s">
         <v>51</v>
       </c>
@@ -1043,7 +1072,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="14"/>
-      <c r="D11" s="38"/>
+      <c r="D11" s="32"/>
       <c r="E11" s="19" t="s">
         <v>49</v>
       </c>
@@ -1336,413 +1365,441 @@
       <c r="E36" s="14"/>
       <c r="F36" s="27"/>
     </row>
-    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="35"/>
-      <c r="B37" s="8" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="34"/>
+      <c r="B37" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="28"/>
-    </row>
-    <row r="38" spans="1:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="30" t="s">
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="39"/>
+    </row>
+    <row r="38" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="A38" s="34"/>
+      <c r="B38" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="15"/>
+      <c r="F38" s="39"/>
+    </row>
+    <row r="39" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="38"/>
+      <c r="B39" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" s="22"/>
+      <c r="F39" s="28"/>
+    </row>
+    <row r="40" spans="1:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B40" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="6" t="s">
+      <c r="C40" s="9"/>
+      <c r="D40" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E38" s="9"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="31"/>
-      <c r="B39" s="6" t="s">
+      <c r="E40" s="9"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="36"/>
+      <c r="B41" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="4" t="s">
+      <c r="C41" s="9"/>
+      <c r="D41" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E39" s="10"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
-      <c r="B40" s="4" t="s">
+      <c r="E41" s="10"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="36"/>
+      <c r="B42" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="10"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
-      <c r="B41" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="10"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="31"/>
-      <c r="B42" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" s="10"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="31"/>
+      <c r="A43" s="36"/>
       <c r="B43" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="4" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="E43" s="10"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="31"/>
+      <c r="A44" s="36"/>
       <c r="B44" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="10"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="36"/>
+      <c r="B45" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="10"/>
+      <c r="D45" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45" s="10"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="36"/>
+      <c r="B46" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="11"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="31"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="4" t="s">
+      <c r="E46" s="11"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="36"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E45" s="11"/>
-    </row>
-    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="32"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="8" t="s">
+      <c r="E47" s="11"/>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="37"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E46" s="12"/>
-    </row>
-    <row r="47" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="30" t="s">
+      <c r="E48" s="12"/>
+    </row>
+    <row r="49" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="B47" s="29" t="s">
+      <c r="B49" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="6" t="s">
+      <c r="C49" s="9"/>
+      <c r="D49" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E47" s="9"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="31"/>
-      <c r="B48" s="6" t="s">
+      <c r="E49" s="9"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="36"/>
+      <c r="B50" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="4" t="s">
+      <c r="C50" s="9"/>
+      <c r="D50" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E48" s="10"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="31"/>
-      <c r="B49" s="4" t="s">
+      <c r="E50" s="10"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="36"/>
+      <c r="B51" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="C49" s="10"/>
-      <c r="D49" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="10"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="31"/>
-      <c r="B50" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C50" s="10"/>
-      <c r="D50" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" s="10"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="31"/>
-      <c r="B51" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" s="10"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="31"/>
+      <c r="A52" s="36"/>
       <c r="B52" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="4" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="E52" s="10"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="31"/>
+      <c r="A53" s="36"/>
       <c r="B53" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="10"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="36"/>
+      <c r="B54" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" s="10"/>
+      <c r="D54" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E54" s="10"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="36"/>
+      <c r="B55" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" s="10"/>
+      <c r="D55" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E53" s="11"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="31"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="4" t="s">
+      <c r="E55" s="11"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="36"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E54" s="11"/>
-    </row>
-    <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="32"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="8" t="s">
+      <c r="E56" s="11"/>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="37"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E55" s="12"/>
-    </row>
-    <row r="56" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="30" t="s">
+      <c r="E57" s="12"/>
+    </row>
+    <row r="58" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="B56" s="29" t="s">
+      <c r="B58" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C56" s="9"/>
-      <c r="D56" s="6" t="s">
+      <c r="C58" s="9"/>
+      <c r="D58" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E56" s="9"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="31"/>
-      <c r="B57" s="6" t="s">
+      <c r="E58" s="9"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="36"/>
+      <c r="B59" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="4" t="s">
+      <c r="C59" s="9"/>
+      <c r="D59" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="10"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="31"/>
-      <c r="B58" s="4" t="s">
+      <c r="E59" s="10"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="36"/>
+      <c r="B60" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="C58" s="10"/>
-      <c r="D58" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" s="10"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="31"/>
-      <c r="B59" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C59" s="10"/>
-      <c r="D59" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" s="10"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="31"/>
-      <c r="B60" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="C60" s="10"/>
       <c r="D60" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" s="10"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="31"/>
+      <c r="A61" s="36"/>
       <c r="B61" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C61" s="10"/>
       <c r="D61" s="4" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="E61" s="10"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="31"/>
+      <c r="A62" s="36"/>
       <c r="B62" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C62" s="10"/>
       <c r="D62" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="10"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="36"/>
+      <c r="B63" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63" s="10"/>
+      <c r="D63" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E63" s="10"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="36"/>
+      <c r="B64" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C64" s="10"/>
+      <c r="D64" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E62" s="11"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="31"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="4" t="s">
+      <c r="E64" s="11"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="36"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E63" s="11"/>
-    </row>
-    <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="32"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="8" t="s">
+      <c r="E65" s="11"/>
+    </row>
+    <row r="66" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="37"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E64" s="12"/>
-    </row>
-    <row r="65" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="30" t="s">
+      <c r="E66" s="12"/>
+    </row>
+    <row r="67" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="B65" s="29" t="s">
+      <c r="B67" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C65" s="9"/>
-      <c r="D65" s="6" t="s">
+      <c r="C67" s="9"/>
+      <c r="D67" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E65" s="9"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="31"/>
-      <c r="B66" s="6" t="s">
+      <c r="E67" s="9"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="36"/>
+      <c r="B68" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="4" t="s">
+      <c r="C68" s="9"/>
+      <c r="D68" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E66" s="10"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="31"/>
-      <c r="B67" s="4" t="s">
+      <c r="E68" s="10"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="36"/>
+      <c r="B69" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="C67" s="10"/>
-      <c r="D67" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E67" s="10"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="31"/>
-      <c r="B68" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C68" s="10"/>
-      <c r="D68" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E68" s="10"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="31"/>
-      <c r="B69" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="C69" s="10"/>
       <c r="D69" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" s="10"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="31"/>
+      <c r="A70" s="36"/>
       <c r="B70" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C70" s="10"/>
       <c r="D70" s="4" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="E70" s="10"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="31"/>
+      <c r="A71" s="36"/>
       <c r="B71" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C71" s="10"/>
       <c r="D71" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="10"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="36"/>
+      <c r="B72" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C72" s="10"/>
+      <c r="D72" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E72" s="10"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="36"/>
+      <c r="B73" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C73" s="10"/>
+      <c r="D73" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E71" s="11"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="31"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="4" t="s">
+      <c r="E73" s="11"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="36"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E72" s="11"/>
-    </row>
-    <row r="73" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="32"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="8" t="s">
+      <c r="E74" s="11"/>
+    </row>
+    <row r="75" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="37"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E73" s="12"/>
+      <c r="E75" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="D6:D11"/>
     <mergeCell ref="A1:A17"/>
-    <mergeCell ref="A56:A64"/>
-    <mergeCell ref="A65:A73"/>
-    <mergeCell ref="A47:A55"/>
-    <mergeCell ref="A18:A37"/>
-    <mergeCell ref="A38:A46"/>
+    <mergeCell ref="A58:A66"/>
+    <mergeCell ref="A67:A75"/>
+    <mergeCell ref="A49:A57"/>
+    <mergeCell ref="A18:A39"/>
+    <mergeCell ref="A40:A48"/>
   </mergeCells>
   <pageMargins left="0" right="3.125E-2" top="0.16666666666666666" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
